--- a/Software/HostComputer/doc/protocol.xlsx
+++ b/Software/HostComputer/doc/protocol.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826BADFD-D300-4633-941E-8259BE2389B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50B57E5-CA2C-4606-9088-65D846950F3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="864" windowWidth="17628" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1104" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>0x00</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,20 +152,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特殊字：0x55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>校准：“CARLIB”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>特殊字：0x55
 (无用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊字：0x56</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -243,6 +235,38 @@
 KI/LV：          float
 KD：        float
 闭环对象：uint8_t：0-位移、1-功率、2-电流、3-力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x58</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x57
+（CONTROL）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x56
+（SWITCH）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x55
+（CARLIB）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x58
+（CONTROL2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量阈值mJ：float
+占位：float
+占位：float
+占位：float
+占位：float</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,17 +704,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="64.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.21875" style="1" customWidth="1"/>
@@ -730,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
@@ -821,13 +845,13 @@
         <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -841,13 +865,13 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -861,105 +885,126 @@
         <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="69" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" s="8" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" ht="78" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Software/HostComputer/doc/protocol.xlsx
+++ b/Software/HostComputer/doc/protocol.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50B57E5-CA2C-4606-9088-65D846950F3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D55A396-73E2-408A-98E2-515CD8EAB217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1104" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,43 +228,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>特殊字：0x58</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x57
+（CONTROL）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x56
+（SWITCH）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x55
+（CARLIB）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x58
+（CONTROL2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>控制类型：uint8_t：0-PID、1-BANG、2-SerialPID
 SetPoint：float：位移mm、功率mW、电流mA、力mN
 OuterLoopKP/Bind：      float
 KP/HV：         float
 KI/LV：          float
 KD：        float
-闭环对象：uint8_t：0-位移、1-功率、2-电流、3-力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊字：0x58</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊字：0x57
-（CONTROL）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊字：0x56
-（SWITCH）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊字：0x55
-（CARLIB）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊字：0x58
-（CONTROL2）</t>
+闭环对象：uint8_t：0-位移、1-功率、2-电流、3-力、4-d位移</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>能量阈值mJ：float
-占位：float
-占位：float
+初期恒功率值mW（拟）：float
+过渡时间S（拟）：float
 占位：float
 占位：float</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -706,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -845,7 +845,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>30</v>
@@ -865,7 +865,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>31</v>
@@ -885,13 +885,13 @@
         <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>51</v>

--- a/Software/HostComputer/doc/protocol.xlsx
+++ b/Software/HostComputer/doc/protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D55A396-73E2-408A-98E2-515CD8EAB217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41025D9E-B560-41DE-9A69-83ACAB108639}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>0x00</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -262,10 +262,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>前期功率为0时表示使用默认值，为150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>能量阈值mJ：float
-初期恒功率值mW（拟）：float
-过渡时间S（拟）：float
-占位：float
+前期功率mW：float
+过渡时间S：float
+补偿功率mW/10S：float
 占位：float</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -707,7 +711,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -914,12 +918,14 @@
         <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>

--- a/Software/HostComputer/doc/protocol.xlsx
+++ b/Software/HostComputer/doc/protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41025D9E-B560-41DE-9A69-83ACAB108639}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C368F2-EF0C-4A6F-89A8-C41B46A617F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,11 +247,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特殊字：0x58
-（CONTROL2）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>控制类型：uint8_t：0-PID、1-BANG、2-SerialPID
 SetPoint：float：位移mm、功率mW、电流mA、力mN
 OuterLoopKP/Bind：      float
@@ -269,8 +264,13 @@
     <t>能量阈值mJ：float
 前期功率mW：float
 过渡时间S：float
-补偿功率mW/10S：float
+补偿功率mW/min：float
 占位：float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x58
+（CONTROL2-功率控制参数细节）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -711,7 +711,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
